--- a/Assets/Resources/ship엑셀.xlsx
+++ b/Assets/Resources/ship엑셀.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\김민근\GitHub\ShootingGame\Assets\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{87224C53-29D4-4908-9223-573FA43F3CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03773435-0BB8-45EC-BD65-717EAEE1D137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16875" yWindow="1320" windowWidth="21300" windowHeight="15510" xr2:uid="{5C0E452D-A6F5-4173-A9ED-43CB1EB929E4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>id</t>
   </si>
@@ -69,6 +69,10 @@
   </si>
   <si>
     <t>unlock_coin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_upgrade_coin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E94C275-6F22-4DCF-AF27-FBDA160DACE5}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E4"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,8 +461,11 @@
       <c r="E1" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -474,8 +481,11 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>120</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -491,8 +501,11 @@
       <c r="E3">
         <v>2000</v>
       </c>
+      <c r="F3">
+        <v>140</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -507,6 +520,9 @@
       </c>
       <c r="E4">
         <v>5000</v>
+      </c>
+      <c r="F4">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
